--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/upstud/Development/c2/cobalt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69636EDA-E612-294F-A2C4-3EF18AAAD4F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B48DE98-8293-D343-8895-57E6F6366B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="1600" windowWidth="35500" windowHeight="19460" xr2:uid="{2FC1C484-A074-2C4E-A138-DE0B2995DEDF}"/>
+    <workbookView xWindow="1640" yWindow="820" windowWidth="35500" windowHeight="19460" xr2:uid="{2FC1C484-A074-2C4E-A138-DE0B2995DEDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>RBAC Test Data</t>
   </si>
@@ -188,18 +188,12 @@
     <t>II HH</t>
   </si>
   <si>
-    <t>Blcok all from 6</t>
-  </si>
-  <si>
     <t>EVERYONE</t>
   </si>
   <si>
     <t>Allow</t>
   </si>
   <si>
-    <t>AA BB CC</t>
-  </si>
-  <si>
     <t>ABF</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>rbac.org.act.clubs.2.payments</t>
   </si>
   <si>
-    <t>rbac.modules.forums.public.moderators</t>
-  </si>
-  <si>
     <t>rbac.modules.forums.private.committeenote.blockeveryone</t>
   </si>
   <si>
@@ -243,6 +234,42 @@
   </si>
   <si>
     <t>rbac.modules.forums.admin.forumadmins</t>
+  </si>
+  <si>
+    <t>Block all from 6</t>
+  </si>
+  <si>
+    <t>Janet Jumper</t>
+  </si>
+  <si>
+    <t>Moderator for secret forum</t>
+  </si>
+  <si>
+    <t>rbac.modules.forums.admin.secret_moderators</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>AA BB CC JJ</t>
+  </si>
+  <si>
+    <t>rbac.modules.forums.admin.global_moderators</t>
+  </si>
+  <si>
+    <t>BB KK</t>
+  </si>
+  <si>
+    <t>Keith Kenneth</t>
+  </si>
+  <si>
+    <t>Global Moderator</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>rbac.modules.forums.admin.public_moderators</t>
   </si>
 </sst>
 </file>
@@ -613,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88129D9-3530-D94D-9195-FCFA23F2C7AC}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,7 +675,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -664,8 +691,8 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4">
-        <v>2</v>
+      <c r="F4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -807,95 +834,101 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>9991</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>9992</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
@@ -903,13 +936,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
@@ -917,13 +950,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>
@@ -931,125 +964,175 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>39</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>6</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/upstud/Development/c2/cobalt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B48DE98-8293-D343-8895-57E6F6366B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C675B0-1ECA-6743-9FDA-C9972C9206E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1640" yWindow="820" windowWidth="35500" windowHeight="19460" xr2:uid="{2FC1C484-A074-2C4E-A138-DE0B2995DEDF}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>Admin Groups</t>
   </si>
   <si>
-    <t>admin.forums.admins.global</t>
-  </si>
-  <si>
     <t>BB</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>rbac.modules.forums.admin.public_moderators</t>
+  </si>
+  <si>
+    <t>admin.modules.forums.admins.global</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88129D9-3530-D94D-9195-FCFA23F2C7AC}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -836,13 +836,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>30</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
         <v>51</v>
@@ -1072,46 +1072,46 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1121,18 +1121,18 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
         <v>57</v>
-      </c>
-      <c r="C42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
